--- a/pred_ohlcv/54_21/2020-01-16 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-346457.3730000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-309703.9661000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-255554.9360836601</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-255515.9360354401</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-250431.9780269701</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-247030.2104269701</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-147578.5079269701</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-151690.5079269701</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-152096.30852697</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-151957.01564834</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-152967.01564834</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-152828.1753584201</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-158046.6072584201</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-158617.6072584201</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-157433.5467287901</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-158547.5467287901</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-149494.6348287901</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-177677.5546287901</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-177317.5546287901</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-214317.5546287901</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-206369.4074287901</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-181909.1283287901</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-182419.9665287901</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-132854.0415287901</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-113732.1682287901</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-113896.1131377901</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-86923.2224377901</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-173230.6364377901</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-182604.7277377901</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-193790.2938377901</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-280061.0707668501</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-342767.2893668502</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-508348.5091668502</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-515105.3682668502</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-519286.0297668502</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-557621.8113668502</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-553375.6466668502</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-536545.3174668502</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-536245.3174668502</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-632333.1167438201</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-631542.1598438201</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-643475.4136438201</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-643581.6834438201</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-644175.4136438201</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-643769.5754438201</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-651972.5754438201</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-652823.5386438201</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-657864.8894438201</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-639669.3631438201</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-638997.0643438201</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-639256.8563438201</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-639256.8563438201</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-625252.6551438201</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-625252.6551438201</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-625532.6563438202</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-611591.4741438201</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-618502.8870438201</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-617866.5652438201</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-631824.5673438201</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-610873.9221438201</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-574440.2550163501</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-560355.4383163501</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-557673.4444163501</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-556751.8508163501</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-549960.6767163501</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-539092.0011163502</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-528998.4493163502</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-528820.2532163502</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-346457.3730000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-309703.9661000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-255554.9360836601</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-255515.9360354401</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-250431.9780269701</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-247030.2104269701</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-147578.5079269701</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-151690.5079269701</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-152096.30852697</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-151957.01564834</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-152967.01564834</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-152828.1753584201</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-158046.6072584201</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-158617.6072584201</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-157433.5467287901</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-158547.5467287901</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-149494.6348287901</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-177677.5546287901</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-177317.5546287901</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-214317.5546287901</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-206369.4074287901</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-181909.1283287901</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-182419.9665287901</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-132854.0415287901</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-113732.1682287901</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-113896.1131377901</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-86923.2224377901</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-173230.6364377901</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-182604.7277377901</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-193790.2938377901</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-342767.2893668502</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-508348.5091668502</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-515105.3682668502</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-519286.0297668502</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-557621.8113668502</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-553375.6466668502</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-536545.3174668502</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-536245.3174668502</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-644175.4136438201</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-643769.5754438201</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-639669.3631438201</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-625532.6563438202</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-611591.4741438201</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-618502.8870438201</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-617866.5652438201</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-631824.5673438201</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-631887.5673438201</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-610873.9221438201</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-593714.5575163501</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-565112.9531163501</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-564959.8875591201</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-535359.8875591201</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-535359.8875591201</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-537378.0179591201</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-574440.2550163501</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-560355.4383163501</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-557673.4444163501</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-556751.8508163501</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-549960.6767163501</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-539092.0011163502</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-528998.4493163502</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-528820.2532163502</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-551191.33051635</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
